--- a/mActualizarDescripciones/formatos/CAMBIO DE DESCRIPCION.xlsx
+++ b/mActualizarDescripciones/formatos/CAMBIO DE DESCRIPCION.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>codigo</t>
   </si>
@@ -27,14 +27,62 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>RICITOS DE ORO MIEL SH 250 ML.</t>
+    <t>CLINIC CEP DENT INTERDENTAL TC37-014</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT DUCKY TC17-013</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT DE VIAJE CON CAPUCHON TC41-013</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT CLASICO TC50-014</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT GO BIMATERIAL TC42-013</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT GEL TC32-010</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT GUITARRA TC24-013</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT TWONE TC38-014</t>
+  </si>
+  <si>
+    <t>CLINIC PAQUETE FAMILIAR TC44-013</t>
+  </si>
+  <si>
+    <t>CLINIC PAQUETE DOBLE TC62-014</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT GEL TC32-013</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT TRANSPARENTE TC40-013</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT ALL ROUNDER TC59-013</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT NANO TC67-014</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT INTER ORTHO TC38-015</t>
+  </si>
+  <si>
+    <t>CLINIC HILO DENTAL TC98-010</t>
+  </si>
+  <si>
+    <t>CLINIC CEP DENT INFANTIL TC16-011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,19 +138,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -145,7 +193,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -160,9 +208,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -176,10 +221,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="AFE 2" xfId="10"/>
@@ -504,18 +557,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,285 +579,347 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>7501022133286</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="14" t="str">
+        <f>"7501072639073"</f>
+        <v>7501072639073</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="str">
+        <f>"7501072601988"</f>
+        <v>7501072601988</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="str">
+        <f>"7501072650009"</f>
+        <v>7501072650009</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="str">
+        <f>"7501072600257"</f>
+        <v>7501072600257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="str">
+        <f>"7501072629029"</f>
+        <v>7501072629029</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>7501072601162</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7501072600240</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7501072640000</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>7501072601179</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>7501072629012</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>7501072601599</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>7501072601674</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>7501072600172</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>7501072601384</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>7501072629036</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>7501072766212</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7501072634016</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="11"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="11"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="11"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="11"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="10"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="11"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="11"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="10"/>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
       <c r="B56" s="10"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="11"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="11"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="10"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="10"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="10"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="10"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="10"/>
-    </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
       <c r="B67" s="10"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="11"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="10"/>
     </row>
   </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="D2" name="Rango1_1"/>
-  </protectedRanges>
   <autoFilter ref="A1:B2">
     <sortState ref="A2:B153">
       <sortCondition sortBy="cellColor" ref="A1:A2" dxfId="0"/>

--- a/mActualizarDescripciones/formatos/CAMBIO DE DESCRIPCION.xlsx
+++ b/mActualizarDescripciones/formatos/CAMBIO DE DESCRIPCION.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>codigo</t>
   </si>
@@ -27,55 +27,7 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>CLINIC CEP DENT INTERDENTAL TC37-014</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT DUCKY TC17-013</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT DE VIAJE CON CAPUCHON TC41-013</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT CLASICO TC50-014</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT GO BIMATERIAL TC42-013</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT GEL TC32-010</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT GUITARRA TC24-013</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT TWONE TC38-014</t>
-  </si>
-  <si>
-    <t>CLINIC PAQUETE FAMILIAR TC44-013</t>
-  </si>
-  <si>
-    <t>CLINIC PAQUETE DOBLE TC62-014</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT GEL TC32-013</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT TRANSPARENTE TC40-013</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT ALL ROUNDER TC59-013</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT NANO TC67-014</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT INTER ORTHO TC38-015</t>
-  </si>
-  <si>
-    <t>CLINIC HILO DENTAL TC98-010</t>
-  </si>
-  <si>
-    <t>CLINIC CEP DENT INFANTIL TC16-011</t>
+    <t xml:space="preserve">TAURUS BASCULA DE BAÑO OBELIX ANALOGA </t>
   </si>
 </sst>
 </file>
@@ -139,10 +91,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -221,17 +172,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -560,7 +505,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -579,154 +524,31 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="str">
-        <f>"7501072639073"</f>
-        <v>7501072639073</v>
+      <c r="A2" s="11">
+        <v>8414234996244</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="str">
-        <f>"7501072601988"</f>
-        <v>7501072601988</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="str">
-        <f>"7501072650009"</f>
-        <v>7501072650009</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="str">
-        <f>"7501072600257"</f>
-        <v>7501072600257</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="str">
-        <f>"7501072629029"</f>
-        <v>7501072629029</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>7501072601162</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7501072600240</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>7501072640000</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>7501072601179</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>7501072629012</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>7501072601599</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>7501072601674</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>7501072600172</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>7501072601384</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>7501072629036</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>7501072766212</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>7501072634016</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
-    </row>
+    <row r="3" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="10"/>
@@ -920,6 +742,9 @@
       <c r="B68" s="10"/>
     </row>
   </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="A2:B2" name="Rango1"/>
+  </protectedRanges>
   <autoFilter ref="A1:B2">
     <sortState ref="A2:B153">
       <sortCondition sortBy="cellColor" ref="A1:A2" dxfId="0"/>
